--- a/New Results.xlsx
+++ b/New Results.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Documents/GitHub/SDP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nojou\Documents\GitHub\SDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C1A2C7-A9C4-6847-941C-A0312E0FC696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D6A80-B2FD-42ED-B121-92CF67E6AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
-    <sheet name="precision" sheetId="2" r:id="rId2"/>
-    <sheet name="Recall" sheetId="3" r:id="rId3"/>
-    <sheet name="F-measure" sheetId="4" r:id="rId4"/>
+    <sheet name="AVG graphs " sheetId="5" r:id="rId2"/>
+    <sheet name="precision" sheetId="2" r:id="rId3"/>
+    <sheet name="Recall" sheetId="3" r:id="rId4"/>
+    <sheet name="F-measure" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="38">
   <si>
     <t>Project</t>
   </si>
@@ -137,6 +138,18 @@
   <si>
     <t>AVG all</t>
   </si>
+  <si>
+    <t xml:space="preserve">Accuracy </t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -215,8 +228,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +254,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -579,7 +612,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -589,7 +622,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -618,27 +650,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -687,13 +698,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -714,6 +719,41 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -731,6 +771,4230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67115060869565224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82653647826086984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84185486956521738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB42-4782-B559-881FC906B4D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81820339130434772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84458426086956517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.853078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB42-4782-B559-881FC906B4D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$3:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.82844278260869575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83682756521739132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84057960869565218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB42-4782-B559-881FC906B4D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="660546224"/>
+        <c:axId val="660543600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="660546224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660543600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="660543600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660546224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Precision</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78547017391304341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80421799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81713269565217395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C6C-4F02-B8BF-6F16DDA001A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.76231565217391317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8164428695652175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83113578260869569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C6C-4F02-B8BF-6F16DDA001A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74038704347826101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77339030434782619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80133343478260877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C6C-4F02-B8BF-6F16DDA001A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="668402304"/>
+        <c:axId val="668402632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="668402304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668402632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668402632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668402304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$27:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67115060869565224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82653647826086984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84185486956521738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AB1-4D0F-A4AB-7B260EE7FFD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$27:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81950773913043473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84588860869565219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.853078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AB1-4D0F-A4AB-7B260EE7FFD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$27:$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.82844278260869575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83682756521739132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84057960869565218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1AB1-4D0F-A4AB-7B260EE7FFD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="661934456"/>
+        <c:axId val="661932160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="661934456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661932160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661932160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661934456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>F- measure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$42:$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$43:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.70911543478260863</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8146423478260868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82844830434782613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF76-47D5-AE82-026F8CF6CE16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$42:$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$44:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78919004347826072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83038082608695662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8414009130434783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF76-47D5-AE82-026F8CF6CE16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AVG graphs '!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'AVG graphs '!$B$42:$D$42</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Without FS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BPSO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SBPSO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AVG graphs '!$B$45:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78082447826086965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80160956521739146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81896669565217406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF76-47D5-AE82-026F8CF6CE16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="672627512"/>
+        <c:axId val="672625216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="672627512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672625216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672625216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672627512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>483869</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321944</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D902C1-E27F-4615-9C3E-EA05E4211350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB2011C-5353-4403-AF98-6695BA193E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A176C5C3-FCD0-4383-BA04-3E3329E7AD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373379</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112394</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD22D63D-379B-4625-ADB4-4A088C28EF53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,97 +5200,97 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J28"/>
+    <sheetView zoomScale="56" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="14.5" style="21"/>
-    <col min="4" max="4" width="14.5" style="18"/>
-    <col min="7" max="7" width="14.5" style="18"/>
-    <col min="10" max="10" width="14.5" style="18"/>
+    <col min="2" max="2" width="14.5" style="20"/>
+    <col min="4" max="4" width="14.5" style="17"/>
+    <col min="7" max="7" width="14.5" style="17"/>
+    <col min="10" max="10" width="14.5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="29" customHeight="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:26" ht="29.05" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="32" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:26" ht="19" thickTop="1" thickBot="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="22" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+    </row>
+    <row r="2" spans="1:26" ht="17.100000000000001" thickTop="1" thickBot="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17" thickTop="1">
+    <row r="3" spans="1:26" ht="15.9" thickTop="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="32">
         <v>0.478632</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="33">
         <v>0.81896599999999997</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="34">
         <v>0.82758600000000004</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="33">
         <v>0.793103</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="33">
         <v>0.83620700000000003</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="34">
         <v>0.83620700000000003</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="33">
         <v>0.77586200000000005</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="33">
         <v>0.81034499999999998</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="33">
         <v>0.76724099999999995</v>
       </c>
     </row>
@@ -1034,31 +5298,31 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="32">
         <v>0.78448300000000004</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="33">
         <v>0.74796700000000005</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="34">
         <v>0.77642299999999997</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="33">
         <v>0.73983699999999997</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>0.768293</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="34">
         <v>0.77235799999999999</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="33">
         <v>0.75203299999999995</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="33">
         <v>0.75203299999999995</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="33">
         <v>0.75609800000000005</v>
       </c>
     </row>
@@ -1066,31 +5330,31 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="32">
         <v>0.42352899999999999</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="33">
         <v>0.84375</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="34">
         <v>0.84375</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="33">
         <v>0.83333299999999999</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <v>0.85416700000000001</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="34">
         <v>0.85763900000000004</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="33">
         <v>0.84375</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="33">
         <v>0.84375</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="33">
         <v>0.85416700000000001</v>
       </c>
     </row>
@@ -1098,31 +5362,31 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="32">
         <v>0.54878000000000005</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="33">
         <v>0.74921599999999999</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="34">
         <v>0.78683400000000003</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="33">
         <v>0.77742900000000004</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>0.796238</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="34">
         <v>0.799373</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="33">
         <v>0.78683400000000003</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="33">
         <v>0.78683400000000003</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="33">
         <v>0.78996900000000003</v>
       </c>
     </row>
@@ -1130,31 +5394,31 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="32">
         <v>0.47924499999999998</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="34">
         <v>0.85470100000000004</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="34">
         <v>0.83760699999999999</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="33">
         <v>0.84615399999999996</v>
       </c>
     </row>
@@ -1162,31 +5426,31 @@
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="32">
         <v>0.66438399999999997</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="33">
         <v>0.90163899999999997</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="34">
         <v>0.90983599999999998</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="33">
         <v>0.88524599999999998</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="33">
         <v>0.90983599999999998</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="34">
         <v>0.90983599999999998</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="33">
         <v>0.88524599999999998</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="33">
         <v>0.89344299999999999</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="33">
         <v>0.89344299999999999</v>
       </c>
     </row>
@@ -1194,31 +5458,31 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="32">
         <v>0.65830699999999998</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <v>0.98773</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="34">
         <v>0.98773</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="34">
         <v>0.981595</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="33">
         <v>0.981595</v>
       </c>
     </row>
@@ -1226,31 +5490,31 @@
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="32">
         <v>0.68055600000000005</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="33">
         <v>0.913462</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="34">
         <v>0.913462</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="33">
         <v>0.875</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <v>0.894231</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="34">
         <v>0.90384600000000004</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="33">
         <v>0.875</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="33">
         <v>0.875</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="33">
         <v>0.88461500000000004</v>
       </c>
     </row>
@@ -1258,31 +5522,31 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="32">
         <v>0.309859</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="33">
         <v>0.887324</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="34">
         <v>0.90610299999999999</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="33">
         <v>0.90140799999999999</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="33">
         <v>0.910798</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="34">
         <v>0.910798</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="33">
         <v>0.89671400000000001</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="33">
         <v>0.90140799999999999</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="33">
         <v>0.910798</v>
       </c>
     </row>
@@ -1290,31 +5554,31 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="32">
         <v>0.92637999999999998</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="33">
         <v>0.70588200000000001</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="34">
         <v>0.74117599999999995</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="33">
         <v>0.68235299999999999</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="33">
         <v>0.75294099999999997</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="34">
         <v>0.764706</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="33">
         <v>0.68235299999999999</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="33">
         <v>0.75294099999999997</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="33">
         <v>0.81176499999999996</v>
       </c>
     </row>
@@ -1322,585 +5586,585 @@
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="32">
         <v>0.57377</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="33">
         <v>0.56226399999999999</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="34">
         <v>0.57735800000000004</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="33">
         <v>0.57358500000000001</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="33">
         <v>0.62264200000000003</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="34">
         <v>0.641509</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="33">
         <v>0.54717000000000005</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>0.58113199999999998</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="33">
         <v>0.62264200000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="10" customFormat="1" ht="16">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="15.3">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="35">
         <v>0.88461500000000004</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="36">
         <v>0.81506800000000001</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="37">
         <v>0.86301399999999995</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="36">
         <v>0.87671200000000005</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="36">
         <v>0.87671200000000005</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="37">
         <v>0.87671200000000005</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="36">
         <v>0.86301399999999995</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="36">
         <v>0.86986300000000005</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="33">
         <v>0.86986300000000005</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" s="13" customFormat="1" ht="17" thickBot="1">
-      <c r="A15" s="11" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" s="12" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="38">
         <f>AVERAGE(B3:B14)</f>
         <v>0.61771166666666677</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="39">
         <f t="shared" ref="C15:J15" si="0">AVERAGE(C3:C14)</f>
         <v>0.81423958333333346</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="40">
         <f t="shared" si="0"/>
         <v>0.83233108333333339</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="39">
         <f t="shared" si="0"/>
         <v>0.81310066666666658</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="39">
         <f t="shared" si="0"/>
         <v>0.83677225</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="40">
         <f t="shared" si="0"/>
         <v>0.84101550000000003</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="39">
         <f t="shared" si="0"/>
         <v>0.81059816666666673</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="39">
         <f t="shared" si="0"/>
         <v>0.82382925000000007</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="40">
         <f t="shared" si="0"/>
         <v>0.83236250000000001</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" ht="16">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.6">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="29">
         <v>0.76851899999999995</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="33">
         <v>0.78703699999999999</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="34">
         <v>0.81481499999999996</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="30">
         <v>0.81481499999999996</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="33">
         <v>0.87963000000000002</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="34">
         <v>0.89814799999999995</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="30">
         <v>0.87036999999999998</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="33">
         <v>0.87036999999999998</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="34">
         <v>0.87036999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="16">
+    <row r="17" spans="1:26" ht="15.6">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="29">
         <v>0.79174800000000001</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="33">
         <v>0.79564000000000001</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="34">
         <v>0.800701</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="30">
         <v>0.75126499999999996</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="33">
         <v>0.78396299999999997</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="34">
         <v>0.78785499999999997</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="30">
         <v>0.79641899999999999</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="33">
         <v>0.79797600000000002</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="34">
         <v>0.79875399999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="16">
+    <row r="18" spans="1:26" ht="15.6">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="29">
         <v>0.73145800000000005</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="33">
         <v>0.74680299999999999</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="34">
         <v>0.75703299999999996</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="30">
         <v>0.70843999999999996</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="33">
         <v>0.74680299999999999</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="34">
         <v>0.74424599999999996</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="30">
         <v>0.73401499999999997</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="33">
         <v>0.72634299999999996</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="34">
         <v>0.72122799999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="16">
+    <row r="19" spans="1:26" ht="15.6">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="29">
         <v>0.73846199999999995</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="33">
         <v>0.8</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="34">
         <v>0.78461499999999995</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="30">
         <v>0.75384600000000002</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="33">
         <v>0.78461499999999995</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="34">
         <v>0.81538500000000003</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="30">
         <v>0.78461499999999995</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="33">
         <v>0.78461499999999995</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="34">
         <v>0.78461499999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="16">
+    <row r="20" spans="1:26" ht="15.6">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="29">
         <v>0.960426</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="33">
         <v>0.97412500000000002</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="34">
         <v>0.97564700000000004</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="30">
         <v>0.97108099999999997</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="33">
         <v>0.97412500000000002</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="34">
         <v>0.97869099999999998</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="30">
         <v>0.97412500000000002</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="33">
         <v>0.97716899999999995</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="34">
         <v>0.97716899999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="16">
+    <row r="21" spans="1:26" ht="15.6">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="29">
         <v>0.75</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="33">
         <v>0.83333299999999999</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="34">
         <v>0.84523800000000004</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="30">
         <v>0.81333299999999997</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="33">
         <v>0.83714299999999997</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="34">
         <v>0.85714299999999999</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="30">
         <v>0.83333299999999999</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="33">
         <v>0.83333299999999999</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="34">
         <v>0.83333299999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="16">
+    <row r="22" spans="1:26" ht="15.6">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="29">
         <v>0.87982800000000005</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="33">
         <v>0.90987099999999999</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="34">
         <v>0.91416299999999995</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="30">
         <v>0.92132999999999998</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="33">
         <v>0.92562199999999994</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="34">
         <v>0.93562199999999995</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="30">
         <v>0.93132999999999999</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="33">
         <v>0.93562199999999995</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="34">
         <v>0.93562199999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="16">
+    <row r="23" spans="1:26" ht="15.6">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="29">
         <v>0.45122000000000001</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="33">
         <v>0.91869900000000004</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="34">
         <v>0.96748000000000001</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="30">
         <v>0.96341500000000002</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="33">
         <v>0.96748000000000001</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="34">
         <v>0.96748000000000001</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="30">
         <v>0.96341500000000002</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="33">
         <v>0.96341500000000002</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="34">
         <v>0.96341500000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="16">
+    <row r="24" spans="1:26" ht="15.6">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="29">
         <v>0.35955100000000001</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="33">
         <v>0.83707900000000002</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="34">
         <v>0.86516899999999997</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="30">
         <v>0.84550599999999998</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="33">
         <v>0.856742</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="34">
         <v>0.87359600000000004</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="30">
         <v>0.84550599999999998</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="33">
         <v>0.84831500000000004</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="34">
         <v>0.84831500000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="16">
+    <row r="25" spans="1:26" ht="15.6">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="29">
         <v>0.87058800000000003</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="33">
         <v>0.89882399999999996</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="34">
         <v>0.90823500000000001</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="30">
         <v>0.84941199999999994</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="33">
         <v>0.89176500000000003</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="34">
         <v>0.92</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="30">
         <v>0.87529400000000002</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="33">
         <v>0.88941199999999998</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="34">
         <v>0.87764699999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="10" customFormat="1" ht="16">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:26" s="9" customFormat="1" ht="15.6">
+      <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="41">
         <v>0.72212399999999999</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="36">
         <v>0.73805299999999996</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="37">
         <v>0.74159299999999995</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="31">
         <v>0.66902700000000004</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="36">
         <v>0.73628300000000002</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="37">
         <v>0.75044200000000005</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="31">
         <v>0.718584</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="36">
         <v>0.73451299999999997</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="37">
         <v>0.73451299999999997</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="15" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="42">
         <f>AVERAGE(B16:B26)</f>
         <v>0.7294476363636363</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="43">
         <f t="shared" ref="C27:J27" si="1">AVERAGE(C16:C26)</f>
         <v>0.83995127272727277</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="44">
         <f t="shared" si="1"/>
         <v>0.8522444545454545</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="43">
         <f t="shared" si="1"/>
         <v>0.82377</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="43">
         <f t="shared" si="1"/>
         <v>0.85310645454545453</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="44">
         <f t="shared" si="1"/>
         <v>0.86623709090909096</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="43">
         <f t="shared" si="1"/>
         <v>0.84790963636363648</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="43">
         <f t="shared" si="1"/>
         <v>0.85100754545454549</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="44">
         <f t="shared" si="1"/>
         <v>0.84954372727272731</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="64">
         <f>AVERAGE(B3:B14,B16:B26)</f>
         <v>0.67115060869565224</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="65">
         <f t="shared" ref="C28:J28" si="2">AVERAGE(C3:C14,C16:C26)</f>
         <v>0.82653647826086984</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="66">
         <f t="shared" si="2"/>
         <v>0.84185486956521738</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="65">
         <f t="shared" si="2"/>
         <v>0.81820339130434772</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="65">
         <f t="shared" si="2"/>
         <v>0.84458426086956517</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="66">
         <f t="shared" si="2"/>
         <v>0.853078</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="65">
         <f t="shared" si="2"/>
         <v>0.82844278260869575</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="65">
         <f t="shared" si="2"/>
         <v>0.83682756521739132</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="66">
         <f t="shared" si="2"/>
         <v>0.84057960869565218</v>
       </c>
@@ -1917,40 +6181,305 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855C2B1C-C4DC-40A7-B359-CDAA0CA81A14}">
+  <dimension ref="A2:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="68">
+        <v>0.67115060869565224</v>
+      </c>
+      <c r="C4" s="68">
+        <v>0.82653647826086984</v>
+      </c>
+      <c r="D4" s="68">
+        <v>0.84185486956521738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="68">
+        <v>0.81820339130434772</v>
+      </c>
+      <c r="C5" s="68">
+        <v>0.84458426086956517</v>
+      </c>
+      <c r="D5" s="68">
+        <v>0.853078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="68">
+        <v>0.82844278260869575</v>
+      </c>
+      <c r="C6" s="68">
+        <v>0.83682756521739132</v>
+      </c>
+      <c r="D6" s="68">
+        <v>0.84057960869565218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="68">
+        <v>0.78547017391304341</v>
+      </c>
+      <c r="C17" s="68">
+        <v>0.80421799999999999</v>
+      </c>
+      <c r="D17" s="68">
+        <v>0.81713269565217395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="68">
+        <v>0.76231565217391317</v>
+      </c>
+      <c r="C18" s="68">
+        <v>0.8164428695652175</v>
+      </c>
+      <c r="D18" s="68">
+        <v>0.83113578260869569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="68">
+        <v>0.74038704347826101</v>
+      </c>
+      <c r="C19" s="68">
+        <v>0.77339030434782619</v>
+      </c>
+      <c r="D19" s="68">
+        <v>0.80133343478260877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="68">
+        <v>0.67115060869565224</v>
+      </c>
+      <c r="C28" s="68">
+        <v>0.82653647826086984</v>
+      </c>
+      <c r="D28" s="68">
+        <v>0.84185486956521738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="68">
+        <v>0.81950773913043473</v>
+      </c>
+      <c r="C29" s="68">
+        <v>0.84588860869565219</v>
+      </c>
+      <c r="D29" s="68">
+        <v>0.853078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="68">
+        <v>0.82844278260869575</v>
+      </c>
+      <c r="C30" s="68">
+        <v>0.83682756521739132</v>
+      </c>
+      <c r="D30" s="68">
+        <v>0.84057960869565218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="68">
+        <v>0.70911543478260863</v>
+      </c>
+      <c r="C43" s="68">
+        <v>0.8146423478260868</v>
+      </c>
+      <c r="D43" s="68">
+        <v>0.82844830434782613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="68">
+        <v>0.78919004347826072</v>
+      </c>
+      <c r="C44" s="68">
+        <v>0.83038082608695662</v>
+      </c>
+      <c r="D44" s="68">
+        <v>0.8414009130434783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="68">
+        <v>0.78082447826086965</v>
+      </c>
+      <c r="C45" s="68">
+        <v>0.80160956521739146</v>
+      </c>
+      <c r="D45" s="68">
+        <v>0.81896669565217406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J28"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:26" ht="17">
-      <c r="A2" s="35"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.8">
+      <c r="A2" s="57"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1983,31 +6512,31 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="33">
         <v>0.81087799999999999</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="33">
         <v>0.81767299999999998</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="33">
         <v>0.825376</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="33">
         <v>0.78748099999999999</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="33">
         <v>0.84087000000000001</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="33">
         <v>0.83404400000000001</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="33">
         <v>0.76657799999999998</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="33">
         <v>0.80577699999999997</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="33">
         <v>0.78486299999999998</v>
       </c>
     </row>
@@ -2015,31 +6544,31 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="33">
         <v>0.77631399999999995</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="33">
         <v>0.72509500000000005</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="33">
         <v>0.709287</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="33">
         <v>0.68822799999999995</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>0.67810499999999996</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="33">
         <v>0.73362400000000005</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="33">
         <v>0.56786099999999995</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="33">
         <v>0.56786099999999995</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="33">
         <v>0.63929400000000003</v>
       </c>
     </row>
@@ -2047,31 +6576,31 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="33">
         <v>0.71707799999999999</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="33">
         <v>0.71191400000000005</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="33">
         <v>0.71191400000000005</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="33">
         <v>0.73158599999999996</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <v>0.77141999999999999</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="33">
         <v>0.82610799999999995</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="33">
         <v>0.71191400000000005</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="33">
         <v>0.71191400000000005</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="33">
         <v>0.82357499999999995</v>
       </c>
     </row>
@@ -2079,31 +6608,31 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="33">
         <v>0.717302</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="33">
         <v>0.637768</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="33">
         <v>0.62498500000000001</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="33">
         <v>0.64558800000000005</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>0.70408499999999996</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="33">
         <v>0.70660699999999999</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="33">
         <v>0.61910799999999999</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="33">
         <v>0.61910799999999999</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="33">
         <v>0.65553700000000004</v>
       </c>
     </row>
@@ -2111,31 +6640,31 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="33">
         <v>0.441384</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="33">
         <v>0.89325699999999997</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="33">
         <v>0.89529899999999996</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <v>0.70158500000000001</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="33">
         <v>0.70158500000000001</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="33">
         <v>0.70158500000000001</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="33">
         <v>0.70158500000000001</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="33">
         <v>0.70158500000000001</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="33">
         <v>0.85293300000000005</v>
       </c>
     </row>
@@ -2143,31 +6672,31 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="33">
         <v>0.74259799999999998</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="33">
         <v>0.92102600000000001</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="33">
         <v>0.90726600000000002</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="33">
         <v>0.79745299999999997</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="33">
         <v>0.90033099999999999</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="33">
         <v>0.90033099999999999</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="33">
         <v>0.79745299999999997</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="33">
         <v>0.79823999999999995</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="33">
         <v>0.79823999999999995</v>
       </c>
     </row>
@@ -2175,31 +6704,31 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="33">
         <v>0.67156300000000002</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <v>0.98788200000000004</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="33">
         <v>0.98773</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="33">
         <v>0.96352899999999997</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <v>0.96352899999999997</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="33">
         <v>0.96352899999999997</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="33">
         <v>0.96352899999999997</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="33">
         <v>0.96352899999999997</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="33">
         <v>0.96352899999999997</v>
       </c>
     </row>
@@ -2207,31 +6736,31 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="33">
         <v>0.77038099999999998</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="33">
         <v>0.88890800000000003</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="33">
         <v>0.88890800000000003</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="33">
         <v>0.765625</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <v>0.88640600000000003</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="33">
         <v>0.89413600000000004</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="33">
         <v>0.765625</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="33">
         <v>0.765625</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="33">
         <v>0.83352199999999999</v>
       </c>
     </row>
@@ -2239,31 +6768,31 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="33">
         <v>0.87603799999999998</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="33">
         <v>0.86139900000000003</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="33">
         <v>0.88548300000000002</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="33">
         <v>0.865263</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="33">
         <v>0.89310699999999998</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="33">
         <v>0.89771900000000004</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="33">
         <v>0.81211800000000001</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="33">
         <v>0.81253699999999995</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="33">
         <v>0.89771900000000004</v>
       </c>
     </row>
@@ -2271,31 +6800,31 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="33">
         <v>0.97035300000000002</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="33">
         <v>0.62778999999999996</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="33">
         <v>0.75513399999999997</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="33">
         <v>0.72579400000000005</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="33">
         <v>0.74918300000000004</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="33">
         <v>0.66990799999999995</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="33">
         <v>0.66283800000000004</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="33">
         <v>0.56691999999999998</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="33">
         <v>0.71782100000000004</v>
       </c>
     </row>
@@ -2303,585 +6832,585 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="33">
         <v>0.87201099999999998</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="33">
         <v>0.55173499999999998</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="33">
         <v>0.61997999999999998</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="33">
         <v>0.525926</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="33">
         <v>0.55457800000000002</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="33">
         <v>0.57354300000000003</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="33">
         <v>0.46496199999999999</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>0.56349700000000003</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="33">
         <v>0.55408800000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="10" customFormat="1" ht="16">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="15.3">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="36">
         <v>0.85496799999999995</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="36">
         <v>0.76385999999999998</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="36">
         <v>0.74479300000000004</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="36">
         <v>0.87156699999999998</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="36">
         <v>0.892123</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="36">
         <v>0.892123</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="36">
         <v>0.74479300000000004</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="36">
         <v>0.82527200000000001</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="36">
         <v>0.81157299999999999</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" s="23" customFormat="1" ht="17" thickBot="1">
-      <c r="A15" s="24" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" s="22" customFormat="1" ht="15.6" thickBot="1">
+      <c r="A15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="46">
         <f>AVERAGE(B3:B14)</f>
         <v>0.76840566666666676</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="46">
         <f t="shared" ref="C15:J15" si="0">AVERAGE(C3:C14)</f>
         <v>0.78235891666666657</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="46">
         <f t="shared" si="0"/>
         <v>0.79634625000000003</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="46">
         <f t="shared" si="0"/>
         <v>0.75580208333333332</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="46">
         <f t="shared" si="0"/>
         <v>0.79461016666666662</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="46">
         <f t="shared" si="0"/>
         <v>0.79943808333333344</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="46">
         <f t="shared" si="0"/>
         <v>0.71486366666666656</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="46">
         <f t="shared" si="0"/>
         <v>0.72515541666666661</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="46">
         <f t="shared" si="0"/>
         <v>0.77772450000000004</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-    </row>
-    <row r="16" spans="1:26" ht="16">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.6">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="47">
         <v>0.81119600000000003</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="33">
         <v>0.805226</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="33">
         <v>0.80304799999999998</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="47">
         <v>0.75090800000000002</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="33">
         <v>0.86326199999999997</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="33">
         <v>0.90881800000000001</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="47">
         <v>0.75754500000000002</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="33">
         <v>0.75754500000000002</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="33">
         <v>0.75754500000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="16">
+    <row r="17" spans="1:26" ht="15.6">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="47">
         <v>0.74185800000000002</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="33">
         <v>0.74688699999999997</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="33">
         <v>0.76305299999999998</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="47">
         <v>0.69569499999999995</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="33">
         <v>0.74169399999999996</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="33">
         <v>0.74882499999999996</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="47">
         <v>0.76455899999999999</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="33">
         <v>0.82197399999999998</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="33">
         <v>0.81407499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="16">
+    <row r="18" spans="1:26" ht="15.6">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="47">
         <v>0.70956399999999997</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="33">
         <v>0.726912</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="33">
         <v>0.74222999999999995</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="47">
         <v>0.67443500000000001</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="33">
         <v>0.72713899999999998</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="33">
         <v>0.72360000000000002</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="47">
         <v>0.71311400000000003</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="33">
         <v>0.77102199999999999</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="33">
         <v>0.79994799999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="16">
+    <row r="19" spans="1:26" ht="15.6">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="47">
         <v>0.68381999999999998</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="33">
         <v>0.77</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="33">
         <v>0.73795699999999997</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="47">
         <v>0.67124799999999996</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="33">
         <v>0.73795699999999997</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="33">
         <v>0.850549</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="47">
         <v>0.61562099999999997</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="33">
         <v>0.61562099999999997</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="33">
         <v>0.61562099999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="16">
+    <row r="20" spans="1:26" ht="15.6">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="47">
         <v>0.95235000000000003</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="33">
         <v>0.94891899999999996</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="33">
         <v>0.97624100000000003</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="47">
         <v>0.95672500000000005</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="33">
         <v>0.94891899999999996</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="33">
         <v>0.97914699999999999</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="47">
         <v>0.94891899999999996</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="33">
         <v>0.97769200000000001</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="33">
         <v>0.97769200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="16">
+    <row r="21" spans="1:26" ht="15.6">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="47">
         <v>0.78340100000000001</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="33">
         <v>0.84313700000000003</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="33">
         <v>0.86977099999999996</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="47">
         <v>0.69444399999999995</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="33">
         <v>0.87804899999999997</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="33">
         <v>0.87804899999999997</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="47">
         <v>0.69444399999999995</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="33">
         <v>0.69444399999999995</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="33">
         <v>0.69444399999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="16">
+    <row r="22" spans="1:26" ht="15.6">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="47">
         <v>0.89259500000000003</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="33">
         <v>0.90166000000000002</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="33">
         <v>0.909076</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="47">
         <v>0.86737600000000004</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="33">
         <v>0.93978499999999998</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="33">
         <v>0.93978499999999998</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="47">
         <v>0.86737600000000004</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="33">
         <v>0.93978499999999998</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="33">
         <v>0.93978499999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="16">
+    <row r="23" spans="1:26" ht="15.6">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="47">
         <v>0.93824399999999997</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="33">
         <v>0.94989599999999996</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="33">
         <v>0.96854200000000001</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="47">
         <v>0.92816799999999999</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="33">
         <v>0.96854200000000001</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="33">
         <v>0.96854200000000001</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="47">
         <v>0.92816799999999999</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="33">
         <v>0.92816799999999999</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="33">
         <v>0.92816799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="16">
+    <row r="24" spans="1:26" ht="15.6">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="47">
         <v>0.81375699999999995</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="33">
         <v>0.81577100000000002</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="33">
         <v>0.84512299999999996</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="47">
         <v>0.79377699999999995</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="33">
         <v>0.84232499999999999</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="33">
         <v>0.87897899999999995</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="47">
         <v>0.71487999999999996</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="33">
         <v>0.87138800000000005</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="33">
         <v>0.87138800000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="16">
+    <row r="25" spans="1:26" ht="15.6">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="47">
         <v>0.83140899999999995</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="33">
         <v>0.88504700000000003</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="33">
         <v>0.901308</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="47">
         <v>0.80099100000000001</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="33">
         <v>0.87414099999999995</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="33">
         <v>0.91326799999999997</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="47">
         <v>0.76614000000000004</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="33">
         <v>0.90181699999999998</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="33">
         <v>0.89265300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="10" customFormat="1" ht="16">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:26" s="9" customFormat="1" ht="15.6">
+      <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="31">
         <v>0.68675200000000003</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="36">
         <v>0.715252</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="36">
         <v>0.72154799999999997</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="31">
         <v>0.62986799999999998</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="36">
         <v>0.721051</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="36">
         <v>0.73330399999999996</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="31">
         <v>0.67977200000000004</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="36">
         <v>0.80665600000000004</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="36">
         <v>0.80665600000000004</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="27" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="48">
         <f>AVERAGE(B16:B26)</f>
         <v>0.80408599999999997</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="48">
         <f t="shared" ref="C27:J27" si="1">AVERAGE(C16:C26)</f>
         <v>0.82806427272727268</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="48">
         <f t="shared" si="1"/>
         <v>0.83980881818181818</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="48">
         <f t="shared" si="1"/>
         <v>0.7694213636363636</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="48">
         <f t="shared" si="1"/>
         <v>0.84026036363636358</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="48">
         <f t="shared" si="1"/>
         <v>0.86571509090909093</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="48">
         <f t="shared" si="1"/>
         <v>0.76823072727272745</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="48">
         <f t="shared" si="1"/>
         <v>0.82601018181818187</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="48">
         <f t="shared" si="1"/>
         <v>0.82708863636363639</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="65">
         <f>AVERAGE(B3:B14,B16:B26)</f>
         <v>0.78547017391304341</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="65">
         <f t="shared" ref="C28:J28" si="2">AVERAGE(C3:C14,C16:C26)</f>
         <v>0.80421799999999999</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="65">
         <f t="shared" si="2"/>
         <v>0.81713269565217395</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="65">
         <f t="shared" si="2"/>
         <v>0.76231565217391317</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="65">
         <f t="shared" si="2"/>
         <v>0.8164428695652175</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="65">
         <f t="shared" si="2"/>
         <v>0.83113578260869569</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="65">
         <f t="shared" si="2"/>
         <v>0.74038704347826101</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="65">
         <f t="shared" si="2"/>
         <v>0.77339030434782619</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="65">
         <f t="shared" si="2"/>
         <v>0.80133343478260877</v>
       </c>
@@ -2897,41 +7426,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J28"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:26" ht="17">
-      <c r="A2" s="35"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.8">
+      <c r="A2" s="57"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2964,31 +7493,31 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="33">
         <v>0.478632</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="33">
         <v>0.81896599999999997</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="33">
         <v>0.82758600000000004</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="33">
         <v>0.793103</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="33">
         <v>0.83620700000000003</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="33">
         <v>0.83620700000000003</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="33">
         <v>0.77586200000000005</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="33">
         <v>0.81034499999999998</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="33">
         <v>0.76724099999999995</v>
       </c>
     </row>
@@ -2996,31 +7525,31 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="33">
         <v>0.78448300000000004</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="33">
         <v>0.74796700000000005</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="33">
         <v>0.77642299999999997</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="33">
         <v>0.73983699999999997</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>0.768293</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="33">
         <v>0.77235799999999999</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="33">
         <v>0.75203299999999995</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="33">
         <v>0.75203299999999995</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="33">
         <v>0.75609800000000005</v>
       </c>
     </row>
@@ -3028,31 +7557,31 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="33">
         <v>0.42352899999999999</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="33">
         <v>0.84375</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="33">
         <v>0.84375</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="33">
         <v>0.83333299999999999</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <v>0.85416700000000001</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="33">
         <v>0.85763900000000004</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="33">
         <v>0.84375</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="33">
         <v>0.84375</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="33">
         <v>0.85416700000000001</v>
       </c>
     </row>
@@ -3060,31 +7589,31 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="33">
         <v>0.54878000000000005</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="33">
         <v>0.74921599999999999</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="33">
         <v>0.78683400000000003</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="33">
         <v>0.77742900000000004</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>0.796238</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="33">
         <v>0.799373</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="33">
         <v>0.78683400000000003</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="33">
         <v>0.78683400000000003</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="33">
         <v>0.78996900000000003</v>
       </c>
     </row>
@@ -3092,31 +7621,31 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="33">
         <v>0.47924499999999998</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="33">
         <v>0.85470100000000004</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="33">
         <v>0.83760699999999999</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="33">
         <v>0.84615399999999996</v>
       </c>
     </row>
@@ -3124,31 +7653,31 @@
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="33">
         <v>0.66438399999999997</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="33">
         <v>0.90163899999999997</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="33">
         <v>0.90983599999999998</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="33">
         <v>0.88524599999999998</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="33">
         <v>0.90983599999999998</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="33">
         <v>0.90983599999999998</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="33">
         <v>0.88524599999999998</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="33">
         <v>0.89344299999999999</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="33">
         <v>0.89344299999999999</v>
       </c>
     </row>
@@ -3156,31 +7685,31 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="33">
         <v>0.65830699999999998</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <v>0.98773</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="33">
         <v>0.98773</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="33">
         <v>0.981595</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="33">
         <v>0.981595</v>
       </c>
     </row>
@@ -3188,31 +7717,31 @@
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="33">
         <v>0.68055600000000005</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="33">
         <v>0.913462</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="33">
         <v>0.913462</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="33">
         <v>0.875</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <v>0.894231</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="33">
         <v>0.90384600000000004</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="33">
         <v>0.875</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="33">
         <v>0.875</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="33">
         <v>0.88461500000000004</v>
       </c>
     </row>
@@ -3220,31 +7749,31 @@
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="33">
         <v>0.309859</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="33">
         <v>0.887324</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="33">
         <v>0.90610299999999999</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="33">
         <v>0.90140799999999999</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="33">
         <v>0.910798</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="33">
         <v>0.910798</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="33">
         <v>0.89671400000000001</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="33">
         <v>0.90140799999999999</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="33">
         <v>0.910798</v>
       </c>
     </row>
@@ -3252,31 +7781,31 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="33">
         <v>0.92637999999999998</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="33">
         <v>0.70588200000000001</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="33">
         <v>0.74117599999999995</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="33">
         <v>0.68235299999999999</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="33">
         <v>0.75294099999999997</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="33">
         <v>0.764706</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="33">
         <v>0.68235299999999999</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="33">
         <v>0.75294099999999997</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="33">
         <v>0.81176499999999996</v>
       </c>
     </row>
@@ -3284,31 +7813,31 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="33">
         <v>0.57377</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="33">
         <v>0.56226399999999999</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="33">
         <v>0.57735800000000004</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="33">
         <v>0.57358500000000001</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="33">
         <v>0.62264200000000003</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="33">
         <v>0.641509</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="33">
         <v>0.54717000000000005</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>0.58113199999999998</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="33">
         <v>0.62264200000000003</v>
       </c>
     </row>
@@ -3316,31 +7845,31 @@
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="33">
         <v>0.88461500000000004</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="33">
         <v>0.81506800000000001</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="33">
         <v>0.86301399999999995</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="33">
         <v>0.87671200000000005</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="33">
         <v>0.87671200000000005</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="33">
         <v>0.87671200000000005</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="33">
         <v>0.86301399999999995</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="33">
         <v>0.86986300000000005</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="33">
         <v>0.86986300000000005</v>
       </c>
       <c r="K14" s="6"/>
@@ -3360,412 +7889,412 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="39">
         <f>AVERAGE(B3:B14)</f>
         <v>0.61771166666666677</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="39">
         <f t="shared" ref="C15:J15" si="0">AVERAGE(C3:C14)</f>
         <v>0.81423958333333346</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="39">
         <f t="shared" si="0"/>
         <v>0.83233108333333339</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="39">
         <f t="shared" si="0"/>
         <v>0.81310066666666658</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="39">
         <f t="shared" si="0"/>
         <v>0.83677225</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="39">
         <f t="shared" si="0"/>
         <v>0.84101550000000003</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="39">
         <f t="shared" si="0"/>
         <v>0.81059816666666673</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="39">
         <f t="shared" si="0"/>
         <v>0.82382925000000007</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="39">
         <f t="shared" si="0"/>
         <v>0.83236250000000001</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" ht="16">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.6">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="47">
         <v>0.76851899999999995</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="33">
         <v>0.78703699999999999</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="33">
         <v>0.81481499999999996</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="47">
         <v>0.81481499999999996</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="33">
         <v>0.87963000000000002</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="33">
         <v>0.89814799999999995</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="47">
         <v>0.87036999999999998</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="33">
         <v>0.87036999999999998</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="33">
         <v>0.87036999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="16">
+    <row r="17" spans="1:26" ht="15.6">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="47">
         <v>0.79174800000000001</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="33">
         <v>0.79564000000000001</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="33">
         <v>0.800701</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="47">
         <v>0.75126499999999996</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="33">
         <v>0.78396299999999997</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="33">
         <v>0.78785499999999997</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="47">
         <v>0.79641899999999999</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="33">
         <v>0.79797600000000002</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="33">
         <v>0.79875399999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="16">
+    <row r="18" spans="1:26" ht="15.6">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="47">
         <v>0.73145800000000005</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="33">
         <v>0.74680299999999999</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="33">
         <v>0.75703299999999996</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="47">
         <v>0.70843999999999996</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="33">
         <v>0.74680299999999999</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="33">
         <v>0.74424599999999996</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="47">
         <v>0.73401499999999997</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="33">
         <v>0.72634299999999996</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="33">
         <v>0.72122799999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="16">
+    <row r="19" spans="1:26" ht="15.6">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="47">
         <v>0.73846199999999995</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="33">
         <v>0.8</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="33">
         <v>0.78461499999999995</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="47">
         <v>0.75384600000000002</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="33">
         <v>0.78461499999999995</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="33">
         <v>0.81538500000000003</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="47">
         <v>0.78461499999999995</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="33">
         <v>0.78461499999999995</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="33">
         <v>0.78461499999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="16">
+    <row r="20" spans="1:26" ht="15.6">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="47">
         <v>0.960426</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="33">
         <v>0.97412500000000002</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="33">
         <v>0.97564700000000004</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="47">
         <v>0.97108099999999997</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="33">
         <v>0.97412500000000002</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="33">
         <v>0.97869099999999998</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="47">
         <v>0.97412500000000002</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="33">
         <v>0.97716899999999995</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="33">
         <v>0.97716899999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="16">
+    <row r="21" spans="1:26" ht="15.6">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="47">
         <v>0.75</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="33">
         <v>0.83333299999999999</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="33">
         <v>0.84523800000000004</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="47">
         <v>0.83333299999999999</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="33">
         <v>0.85714299999999999</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="33">
         <v>0.85714299999999999</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="47">
         <v>0.83333299999999999</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="33">
         <v>0.83333299999999999</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="33">
         <v>0.83333299999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="16">
+    <row r="22" spans="1:26" ht="15.6">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="47">
         <v>0.87982800000000005</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="33">
         <v>0.90987099999999999</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="33">
         <v>0.91416299999999995</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="47">
         <v>0.93132999999999999</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="33">
         <v>0.93562199999999995</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="33">
         <v>0.93562199999999995</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="47">
         <v>0.93132999999999999</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="33">
         <v>0.93562199999999995</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="33">
         <v>0.93562199999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="16">
+    <row r="23" spans="1:26" ht="15.6">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="47">
         <v>0.45122000000000001</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="33">
         <v>0.91869900000000004</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="33">
         <v>0.96748000000000001</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="47">
         <v>0.96341500000000002</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="33">
         <v>0.96748000000000001</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="33">
         <v>0.96748000000000001</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="47">
         <v>0.96341500000000002</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="33">
         <v>0.96341500000000002</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="33">
         <v>0.96341500000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="16">
+    <row r="24" spans="1:26" ht="15.6">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="47">
         <v>0.35955100000000001</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="33">
         <v>0.83707900000000002</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="33">
         <v>0.86516899999999997</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="47">
         <v>0.84550599999999998</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="33">
         <v>0.856742</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="33">
         <v>0.87359600000000004</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="47">
         <v>0.84550599999999998</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="33">
         <v>0.84831500000000004</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="33">
         <v>0.84831500000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="16">
+    <row r="25" spans="1:26" ht="15.6">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="47">
         <v>0.87058800000000003</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="33">
         <v>0.89882399999999996</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="33">
         <v>0.90823500000000001</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="47">
         <v>0.84941199999999994</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="33">
         <v>0.89176500000000003</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="33">
         <v>0.92</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="47">
         <v>0.87529400000000002</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="33">
         <v>0.88941199999999998</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="33">
         <v>0.87764699999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="16">
+    <row r="26" spans="1:26" ht="15.6">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="30">
         <v>0.72212399999999999</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="33">
         <v>0.73805299999999996</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="33">
         <v>0.74159299999999995</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="30">
         <v>0.66902700000000004</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="33">
         <v>0.73628300000000002</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="33">
         <v>0.75044200000000005</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="30">
         <v>0.718584</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="33">
         <v>0.73451299999999997</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="33">
         <v>0.73451299999999997</v>
       </c>
       <c r="K26" s="6"/>
@@ -3785,84 +8314,84 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="43">
         <f>AVERAGE(B16:B26)</f>
         <v>0.7294476363636363</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="43">
         <f t="shared" ref="C27:J27" si="1">AVERAGE(C16:C26)</f>
         <v>0.83995127272727277</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="43">
         <f t="shared" si="1"/>
         <v>0.8522444545454545</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="43">
         <f t="shared" si="1"/>
         <v>0.82649727272727269</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="43">
         <f t="shared" si="1"/>
         <v>0.85583372727272722</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="43">
         <f t="shared" si="1"/>
         <v>0.86623709090909096</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="43">
         <f t="shared" si="1"/>
         <v>0.84790963636363648</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="43">
         <f t="shared" si="1"/>
         <v>0.85100754545454549</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="43">
         <f t="shared" si="1"/>
         <v>0.84954372727272731</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="45">
         <f>AVERAGE(B3:B14,B16:B26)</f>
         <v>0.67115060869565224</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="45">
         <f t="shared" ref="C28:J28" si="2">AVERAGE(C3:C14,C16:C26)</f>
         <v>0.82653647826086984</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="45">
         <f t="shared" si="2"/>
         <v>0.84185486956521738</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="45">
         <f t="shared" si="2"/>
         <v>0.81950773913043473</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="45">
         <f t="shared" si="2"/>
         <v>0.84588860869565219</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="45">
         <f t="shared" si="2"/>
         <v>0.853078</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="45">
         <f t="shared" si="2"/>
         <v>0.82844278260869575</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="45">
         <f t="shared" si="2"/>
         <v>0.83682756521739132</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="45">
         <f t="shared" si="2"/>
         <v>0.84057960869565218</v>
       </c>
@@ -3878,72 +8407,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J28"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="14.5" style="21"/>
-    <col min="4" max="4" width="14.5" style="18"/>
-    <col min="7" max="7" width="14.5" style="18"/>
-    <col min="10" max="10" width="14.5" style="18"/>
+    <col min="2" max="2" width="14.5" style="20"/>
+    <col min="4" max="4" width="14.5" style="17"/>
+    <col min="7" max="7" width="14.5" style="17"/>
+    <col min="10" max="10" width="14.5" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="36" t="s">
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:26" ht="17">
-      <c r="A2" s="40"/>
-      <c r="B2" s="20" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.8">
+      <c r="A2" s="62"/>
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3951,31 +8480,31 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="32">
         <v>0.60195299999999996</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="33">
         <v>0.81831900000000002</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="34">
         <v>0.82647999999999999</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="33">
         <v>0.79028200000000004</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="33">
         <v>0.83853200000000006</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="34">
         <v>0.83512399999999998</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="33">
         <v>0.77119199999999999</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="33">
         <v>0.80805400000000005</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="34">
         <v>0.77595199999999998</v>
       </c>
     </row>
@@ -3983,31 +8512,31 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="32">
         <v>0.78037699999999999</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="33">
         <v>0.73635300000000004</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="34">
         <v>0.74133800000000005</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="33">
         <v>0.71309999999999996</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>0.720387</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="34">
         <v>0.75249299999999997</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="33">
         <v>0.64709799999999995</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="33">
         <v>0.64709799999999995</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="34">
         <v>0.69280699999999995</v>
       </c>
     </row>
@@ -4015,31 +8544,31 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="32">
         <v>0.53252999999999995</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="33">
         <v>0.77224599999999999</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="34">
         <v>0.77224599999999999</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="33">
         <v>0.77915199999999996</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="33">
         <v>0.81068700000000005</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="34">
         <v>0.84157800000000005</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="33">
         <v>0.77224599999999999</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="33">
         <v>0.77224599999999999</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="34">
         <v>0.838592</v>
       </c>
     </row>
@@ -4047,31 +8576,31 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="32">
         <v>0.62182599999999999</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="33">
         <v>0.68901400000000002</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="34">
         <v>0.69663200000000003</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="33">
         <v>0.70540099999999994</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>0.74733099999999997</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="34">
         <v>0.75013300000000005</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="33">
         <v>0.69296599999999997</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="33">
         <v>0.69296599999999997</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="34">
         <v>0.71650199999999997</v>
       </c>
     </row>
@@ -4079,31 +8608,31 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="32">
         <v>0.459536</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="33">
         <v>0.864537</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="34">
         <v>0.874529</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <v>0.76358599999999999</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="33">
         <v>0.76358599999999999</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="34">
         <v>0.76358599999999999</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="33">
         <v>0.76358599999999999</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="33">
         <v>0.76358599999999999</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="34">
         <v>0.84953000000000001</v>
       </c>
     </row>
@@ -4111,31 +8640,31 @@
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="32">
         <v>0.70131699999999997</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="33">
         <v>0.91122999999999998</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="34">
         <v>0.90854900000000005</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="33">
         <v>0.839059</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="33">
         <v>0.90505800000000003</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="34">
         <v>0.90505800000000003</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="33">
         <v>0.839059</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="33">
         <v>0.84316199999999997</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="34">
         <v>0.84316199999999997</v>
       </c>
     </row>
@@ -4143,31 +8672,31 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="32">
         <v>0.66486900000000004</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="33">
         <v>0.98780599999999996</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="34">
         <v>0.98773</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="33">
         <v>0.97247799999999995</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <v>0.97247799999999995</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="34">
         <v>0.97247799999999995</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="33">
         <v>0.97247799999999995</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="33">
         <v>0.97247799999999995</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="34">
         <v>0.97247799999999995</v>
       </c>
     </row>
@@ -4175,31 +8704,31 @@
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="32">
         <v>0.722688</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="33">
         <v>0.90101799999999999</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="34">
         <v>0.90101799999999999</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="33">
         <v>0.81666700000000003</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <v>0.89030100000000001</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="34">
         <v>0.89896500000000001</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="33">
         <v>0.81666700000000003</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="33">
         <v>0.81666700000000003</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="34">
         <v>0.85830899999999999</v>
       </c>
     </row>
@@ -4207,31 +8736,31 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="32">
         <v>0.45779399999999998</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="33">
         <v>0.87416899999999997</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="34">
         <v>0.89567399999999997</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="33">
         <v>0.88296600000000003</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="33">
         <v>0.90186599999999995</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="34">
         <v>0.90421099999999999</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="33">
         <v>0.85232200000000002</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="33">
         <v>0.85466900000000001</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="34">
         <v>0.90421099999999999</v>
       </c>
     </row>
@@ -4239,31 +8768,31 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="32">
         <v>0.94785699999999995</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="33">
         <v>0.66454999999999997</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="34">
         <v>0.74809000000000003</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="33">
         <v>0.70340400000000003</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="33">
         <v>0.75105699999999997</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="34">
         <v>0.714175</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="33">
         <v>0.672454</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="33">
         <v>0.64682200000000001</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="34">
         <v>0.76190800000000003</v>
       </c>
     </row>
@@ -4271,585 +8800,585 @@
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="32">
         <v>0.69213000000000002</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="33">
         <v>0.55694999999999995</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="34">
         <v>0.59791099999999997</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="33">
         <v>0.54872299999999996</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="33">
         <v>0.586642</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="34">
         <v>0.60562499999999997</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="33">
         <v>0.50272700000000003</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="33">
         <v>0.57217899999999999</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="34">
         <v>0.586368</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:26" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="35">
         <v>0.86953899999999995</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="36">
         <v>0.78863399999999995</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="37">
         <v>0.79955699999999996</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="36">
         <v>0.87413200000000002</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="36">
         <v>0.884351</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="37">
         <v>0.884351</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="36">
         <v>0.79955699999999996</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="36">
         <v>0.84698099999999998</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="37">
         <v>0.83970800000000001</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="24" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="49">
         <f>AVERAGE(B3:B14)</f>
         <v>0.67103466666666656</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="49">
         <f t="shared" ref="C15:J15" si="0">AVERAGE(C3:C14)</f>
         <v>0.79706883333333334</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="49">
         <f t="shared" si="0"/>
         <v>0.81247949999999991</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="49">
         <f t="shared" si="0"/>
         <v>0.78241249999999996</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>0.81435633333333335</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="49">
         <f t="shared" si="0"/>
         <v>0.81898141666666657</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>0.75852933333333328</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="49">
         <f t="shared" si="0"/>
         <v>0.76974233333333331</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="49">
         <f t="shared" si="0"/>
         <v>0.80329391666666661</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-    </row>
-    <row r="16" spans="1:26" ht="16">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.6">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="50">
         <v>0.78928100000000001</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="33">
         <v>0.79602799999999996</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="34">
         <v>0.80888899999999997</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="47">
         <v>0.78155699999999995</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="33">
         <v>0.87136899999999995</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="34">
         <v>0.90345200000000003</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="47">
         <v>0.81004799999999999</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="33">
         <v>0.81004799999999999</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="34">
         <v>0.81004799999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="16">
+    <row r="17" spans="1:26" ht="15.6">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="50">
         <v>0.76599099999999998</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="33">
         <v>0.77049299999999998</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="34">
         <v>0.78142400000000001</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="47">
         <v>0.72241299999999997</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="33">
         <v>0.762243</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="34">
         <v>0.767845</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="47">
         <v>0.78016399999999997</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="33">
         <v>0.80979699999999999</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="34">
         <v>0.806342</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="16">
+    <row r="18" spans="1:26" ht="15.6">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="50">
         <v>0.72034399999999998</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="33">
         <v>0.73672300000000002</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="34">
         <v>0.74955799999999995</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="47">
         <v>0.69101900000000005</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="33">
         <v>0.73684000000000005</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="34">
         <v>0.73377800000000004</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="47">
         <v>0.723414</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="33">
         <v>0.74801600000000001</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="34">
         <v>0.75855099999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="16">
+    <row r="19" spans="1:26" ht="15.6">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="50">
         <v>0.71009100000000003</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="33">
         <v>0.78471299999999999</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="34">
         <v>0.760571</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="47">
         <v>0.71015399999999995</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="33">
         <v>0.760571</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="34">
         <v>0.832596</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="47">
         <v>0.68991999999999998</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="33">
         <v>0.68991999999999998</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="34">
         <v>0.68991999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="16">
+    <row r="20" spans="1:26" ht="15.6">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="50">
         <v>0.95637099999999997</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="33">
         <v>0.96135700000000002</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="34">
         <v>0.97594400000000003</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="47">
         <v>0.96384999999999998</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="33">
         <v>0.96135700000000002</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="34">
         <v>0.97891899999999998</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="47">
         <v>0.96135700000000002</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="33">
         <v>0.97743000000000002</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="34">
         <v>0.97743000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="16">
+    <row r="21" spans="1:26" ht="15.6">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="50">
         <v>0.76633700000000005</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="33">
         <v>0.83820700000000004</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="34">
         <v>0.85732900000000001</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="47">
         <v>0.75757600000000003</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="33">
         <v>0.86746999999999996</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="34">
         <v>0.86746999999999996</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="47">
         <v>0.75757600000000003</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="33">
         <v>0.75757600000000003</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="34">
         <v>0.75757600000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="16">
+    <row r="22" spans="1:26" ht="15.6">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="50">
         <v>0.88616600000000001</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="33">
         <v>0.90574699999999997</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="34">
         <v>0.91161300000000001</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="47">
         <v>0.89821600000000001</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="33">
         <v>0.93769899999999995</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="34">
         <v>0.93769899999999995</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="47">
         <v>0.89821600000000001</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="33">
         <v>0.93769899999999995</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="34">
         <v>0.93769899999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="16">
+    <row r="23" spans="1:26" ht="15.6">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="50">
         <v>0.60937799999999998</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="33">
         <v>0.93403700000000001</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="34">
         <v>0.96801000000000004</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="47">
         <v>0.94546300000000005</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="33">
         <v>0.96801000000000004</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="34">
         <v>0.96801000000000004</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="47">
         <v>0.94546300000000005</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="33">
         <v>0.94546300000000005</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="34">
         <v>0.94546300000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="16">
+    <row r="24" spans="1:26" ht="15.6">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="50">
         <v>0.49873800000000001</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="33">
         <v>0.82628699999999999</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="34">
         <v>0.85502800000000001</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="47">
         <v>0.81882500000000003</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="33">
         <v>0.849472</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="34">
         <v>0.87627900000000003</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="47">
         <v>0.774725</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="33">
         <v>0.85969600000000002</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="34">
         <v>0.85969600000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="16">
+    <row r="25" spans="1:26" ht="15.6">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="50">
         <v>0.85054799999999997</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="33">
         <v>0.89188199999999995</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="34">
         <v>0.90475799999999995</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="47">
         <v>0.82449099999999997</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="33">
         <v>0.88286500000000001</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="34">
         <v>0.91662200000000005</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="47">
         <v>0.81708800000000004</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="33">
         <v>0.89557100000000001</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="34">
         <v>0.88508600000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="10" customFormat="1" ht="16">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:26" s="9" customFormat="1" ht="15.6">
+      <c r="A26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="65">
+      <c r="B26" s="51">
         <v>0.70399400000000001</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="36">
         <v>0.72647399999999995</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="37">
         <v>0.731433</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="31">
         <v>0.64885700000000002</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="36">
         <v>0.72858699999999998</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="37">
         <v>0.74177400000000004</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="31">
         <v>0.69864000000000004</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="36">
         <v>0.76889600000000002</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="37">
         <v>0.76889600000000002</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="28" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" spans="1:26" s="12" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="54">
+      <c r="B27" s="42">
         <f>AVERAGE(B16:B26)</f>
         <v>0.75065809090909097</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="42">
         <f t="shared" ref="C27:J27" si="1">AVERAGE(C16:C26)</f>
         <v>0.83381345454545441</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="42">
         <f t="shared" si="1"/>
         <v>0.84586881818181814</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="42">
         <f t="shared" si="1"/>
         <v>0.7965837272727273</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="42">
         <f t="shared" si="1"/>
         <v>0.84786209090909104</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="42">
         <f t="shared" si="1"/>
         <v>0.86585854545454555</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H27" s="42">
         <f t="shared" si="1"/>
         <v>0.80514645454545442</v>
       </c>
-      <c r="I27" s="54">
+      <c r="I27" s="42">
         <f t="shared" si="1"/>
         <v>0.83637381818181822</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="42">
         <f t="shared" si="1"/>
         <v>0.83606427272727268</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A28" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="64">
         <f>AVERAGE(B3:B14,B16:B26)</f>
         <v>0.70911543478260863</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="64">
         <f t="shared" ref="C28:J28" si="2">AVERAGE(C3:C14,C16:C26)</f>
         <v>0.8146423478260868</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="64">
         <f t="shared" si="2"/>
         <v>0.82844830434782613</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="64">
         <f t="shared" si="2"/>
         <v>0.78919004347826072</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="64">
         <f t="shared" si="2"/>
         <v>0.83038082608695662</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="64">
         <f t="shared" si="2"/>
         <v>0.8414009130434783</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="64">
         <f t="shared" si="2"/>
         <v>0.78082447826086965</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="64">
         <f t="shared" si="2"/>
         <v>0.80160956521739146</v>
       </c>
-      <c r="J28" s="57">
+      <c r="J28" s="64">
         <f t="shared" si="2"/>
         <v>0.81896669565217406</v>
       </c>
